--- a/data/pca/factorExposure/factorExposure_2015-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02010039934947937</v>
+        <v>-0.0115334346174615</v>
       </c>
       <c r="C2">
-        <v>0.02899869095549656</v>
+        <v>0.05273226813711267</v>
       </c>
       <c r="D2">
-        <v>0.1473975726312916</v>
+        <v>-0.1126138987335928</v>
       </c>
       <c r="E2">
-        <v>0.06301532546150662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06089872350426803</v>
+      </c>
+      <c r="F2">
+        <v>0.03300489332770061</v>
+      </c>
+      <c r="G2">
+        <v>0.145800987581655</v>
+      </c>
+      <c r="H2">
+        <v>-0.05842215978861685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04710923015246533</v>
+        <v>-0.02291936145304795</v>
       </c>
       <c r="C4">
-        <v>0.07708651437615047</v>
+        <v>0.1141199543251277</v>
       </c>
       <c r="D4">
-        <v>0.1005566011558024</v>
+        <v>-0.1077674845994143</v>
       </c>
       <c r="E4">
-        <v>0.1174834571535232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.06083471250292944</v>
+      </c>
+      <c r="F4">
+        <v>0.09135774192683735</v>
+      </c>
+      <c r="G4">
+        <v>0.02333773724676537</v>
+      </c>
+      <c r="H4">
+        <v>0.07479783402020092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03020889557378732</v>
+        <v>-0.0345940315069918</v>
       </c>
       <c r="C6">
-        <v>0.0180281024174772</v>
+        <v>0.03826423892207412</v>
       </c>
       <c r="D6">
-        <v>0.1073724219457247</v>
+        <v>-0.09140944631133006</v>
       </c>
       <c r="E6">
-        <v>0.07713441076035789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.09061466437890489</v>
+      </c>
+      <c r="F6">
+        <v>0.04002915600521004</v>
+      </c>
+      <c r="G6">
+        <v>-0.001575776419281902</v>
+      </c>
+      <c r="H6">
+        <v>-0.0134743659489222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001224638013392694</v>
+        <v>-0.007093084817201304</v>
       </c>
       <c r="C7">
-        <v>0.02618842733832679</v>
+        <v>0.04149346961899005</v>
       </c>
       <c r="D7">
-        <v>0.1021329071155271</v>
+        <v>-0.08771069394629864</v>
       </c>
       <c r="E7">
-        <v>0.04712604198681768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08500769673929119</v>
+      </c>
+      <c r="F7">
+        <v>0.01308164344201242</v>
+      </c>
+      <c r="G7">
+        <v>-0.00919339004910349</v>
+      </c>
+      <c r="H7">
+        <v>0.0260696903606882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.001247671904895355</v>
+        <v>0.004809641236981664</v>
       </c>
       <c r="C8">
-        <v>0.02676017226396306</v>
+        <v>0.03778861021941577</v>
       </c>
       <c r="D8">
-        <v>0.07266185844432201</v>
+        <v>-0.05701098811879277</v>
       </c>
       <c r="E8">
-        <v>0.06046947767240932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05075175506232464</v>
+      </c>
+      <c r="F8">
+        <v>0.04961910760146782</v>
+      </c>
+      <c r="G8">
+        <v>0.07667803489548532</v>
+      </c>
+      <c r="H8">
+        <v>0.0417622276249948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03622193278110634</v>
+        <v>-0.01603010554513461</v>
       </c>
       <c r="C9">
-        <v>0.06770843176450315</v>
+        <v>0.0940659644428754</v>
       </c>
       <c r="D9">
-        <v>0.1055347182738679</v>
+        <v>-0.09492606209438612</v>
       </c>
       <c r="E9">
-        <v>0.09625398267576299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.05263750016976726</v>
+      </c>
+      <c r="F9">
+        <v>0.05967093532012499</v>
+      </c>
+      <c r="G9">
+        <v>0.005614524551800252</v>
+      </c>
+      <c r="H9">
+        <v>0.02773683849109052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1938862000180317</v>
+        <v>-0.2435084332354538</v>
       </c>
       <c r="C10">
-        <v>-0.1591620139157497</v>
+        <v>-0.09340206930686201</v>
       </c>
       <c r="D10">
-        <v>-0.04027125485539194</v>
+        <v>0.01205604794431615</v>
       </c>
       <c r="E10">
-        <v>0.02975538524512513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02089118184395362</v>
+      </c>
+      <c r="F10">
+        <v>0.04028502758309484</v>
+      </c>
+      <c r="G10">
+        <v>-0.007437050303132258</v>
+      </c>
+      <c r="H10">
+        <v>-0.003046533375562442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0145813598110041</v>
+        <v>-0.01065570885172329</v>
       </c>
       <c r="C11">
-        <v>0.04335189520436308</v>
+        <v>0.06146163413504701</v>
       </c>
       <c r="D11">
-        <v>0.04353978919662119</v>
+        <v>-0.03549572501065693</v>
       </c>
       <c r="E11">
-        <v>-0.005586527734106604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03919245566302627</v>
+      </c>
+      <c r="F11">
+        <v>-0.01195491726620518</v>
+      </c>
+      <c r="G11">
+        <v>-0.003979983062072726</v>
+      </c>
+      <c r="H11">
+        <v>0.0215327974119223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01303184999752218</v>
+        <v>-0.01072055912695708</v>
       </c>
       <c r="C12">
-        <v>0.04363853815677609</v>
+        <v>0.05243812268291159</v>
       </c>
       <c r="D12">
-        <v>0.05998526120758371</v>
+        <v>-0.0437658280854271</v>
       </c>
       <c r="E12">
-        <v>0.01287603445829159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03440588631629111</v>
+      </c>
+      <c r="F12">
+        <v>-0.01384621448282588</v>
+      </c>
+      <c r="G12">
+        <v>-0.01490886547700389</v>
+      </c>
+      <c r="H12">
+        <v>-0.01699442223946112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.008750255614336701</v>
+        <v>-0.005084992072187173</v>
       </c>
       <c r="C13">
-        <v>0.02852784524922391</v>
+        <v>0.06005655695362314</v>
       </c>
       <c r="D13">
-        <v>0.1277488710061613</v>
+        <v>-0.1481459638732606</v>
       </c>
       <c r="E13">
-        <v>0.08406170002162959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.08363962669265036</v>
+      </c>
+      <c r="F13">
+        <v>0.03944271780441438</v>
+      </c>
+      <c r="G13">
+        <v>0.06114326515842374</v>
+      </c>
+      <c r="H13">
+        <v>-0.07090123416956838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007456950871886026</v>
+        <v>-0.003966180027112599</v>
       </c>
       <c r="C14">
-        <v>0.01750524334995981</v>
+        <v>0.03501561980501252</v>
       </c>
       <c r="D14">
-        <v>0.07609424078976895</v>
+        <v>-0.08603857490053005</v>
       </c>
       <c r="E14">
-        <v>0.04097736516272958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.08922303735437391</v>
+      </c>
+      <c r="F14">
+        <v>0.03023997603250031</v>
+      </c>
+      <c r="G14">
+        <v>0.01743473165725302</v>
+      </c>
+      <c r="H14">
+        <v>-0.02951140833766699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002456215336554589</v>
+        <v>0.003232167640291746</v>
       </c>
       <c r="C15">
-        <v>0.01220382278782349</v>
+        <v>0.03101867289494791</v>
       </c>
       <c r="D15">
-        <v>0.04673525862428483</v>
+        <v>-0.05817598897172854</v>
       </c>
       <c r="E15">
-        <v>0.01658268222254626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.0407925443649276</v>
+      </c>
+      <c r="F15">
+        <v>0.008269639643650585</v>
+      </c>
+      <c r="G15">
+        <v>0.02645224891015846</v>
+      </c>
+      <c r="H15">
+        <v>0.01428567642112856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01376128539548412</v>
+        <v>-0.01014847544975038</v>
       </c>
       <c r="C16">
-        <v>0.03994634051304835</v>
+        <v>0.05337076190661253</v>
       </c>
       <c r="D16">
-        <v>0.04699045834796807</v>
+        <v>-0.03808744611140489</v>
       </c>
       <c r="E16">
-        <v>0.006505109592627307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03952146181118053</v>
+      </c>
+      <c r="F16">
+        <v>-0.006879674761741457</v>
+      </c>
+      <c r="G16">
+        <v>-0.014907040688849</v>
+      </c>
+      <c r="H16">
+        <v>0.009870137508587385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003330306321320639</v>
+        <v>0.0005412578056987375</v>
       </c>
       <c r="C19">
-        <v>0.02134525340221094</v>
+        <v>0.01788383550467998</v>
       </c>
       <c r="D19">
-        <v>0.0699236353620952</v>
+        <v>-0.0384818429034743</v>
       </c>
       <c r="E19">
-        <v>0.03838440566940178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.002746921230397737</v>
+      </c>
+      <c r="F19">
+        <v>0.005011818781688687</v>
+      </c>
+      <c r="G19">
+        <v>0.01855396002921894</v>
+      </c>
+      <c r="H19">
+        <v>-0.01709488127921575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002027095212512338</v>
+        <v>-0.005321537026910127</v>
       </c>
       <c r="C20">
-        <v>0.02739782738497559</v>
+        <v>0.04494152953987741</v>
       </c>
       <c r="D20">
-        <v>0.06804503769326012</v>
+        <v>-0.07425963407437454</v>
       </c>
       <c r="E20">
-        <v>0.05599566851254369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05318048541060483</v>
+      </c>
+      <c r="F20">
+        <v>0.02541995544359149</v>
+      </c>
+      <c r="G20">
+        <v>-0.01158894272154523</v>
+      </c>
+      <c r="H20">
+        <v>0.03100009790579058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003949115978729627</v>
+        <v>-0.004077155530175781</v>
       </c>
       <c r="C21">
-        <v>0.03205517385803166</v>
+        <v>0.04710793106126594</v>
       </c>
       <c r="D21">
-        <v>0.11858920336967</v>
+        <v>-0.1117927030750453</v>
       </c>
       <c r="E21">
-        <v>0.1247372977973787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.06966637141577089</v>
+      </c>
+      <c r="F21">
+        <v>0.09393726107603832</v>
+      </c>
+      <c r="G21">
+        <v>0.07256511889515369</v>
+      </c>
+      <c r="H21">
+        <v>-0.08896838178668068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.005431746121374936</v>
+        <v>0.005924887959902527</v>
       </c>
       <c r="C22">
-        <v>0.05251704968044069</v>
+        <v>0.08419332285000354</v>
       </c>
       <c r="D22">
-        <v>0.2097933416171391</v>
+        <v>-0.2117702343006956</v>
       </c>
       <c r="E22">
-        <v>0.1022435765916517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05893415815171898</v>
+      </c>
+      <c r="F22">
+        <v>0.04258788830941114</v>
+      </c>
+      <c r="G22">
+        <v>0.2560538160430424</v>
+      </c>
+      <c r="H22">
+        <v>0.1259802501350497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.005885570014276822</v>
+        <v>0.002820346651088426</v>
       </c>
       <c r="C23">
-        <v>0.05290749443947207</v>
+        <v>0.08592678138794865</v>
       </c>
       <c r="D23">
-        <v>0.2086782712978662</v>
+        <v>-0.2153081691999857</v>
       </c>
       <c r="E23">
-        <v>0.1022099006305772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05587985469347664</v>
+      </c>
+      <c r="F23">
+        <v>0.04579813191666083</v>
+      </c>
+      <c r="G23">
+        <v>0.2495948216993703</v>
+      </c>
+      <c r="H23">
+        <v>0.1196987447111029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0195760201144663</v>
+        <v>-0.01138715604534902</v>
       </c>
       <c r="C24">
-        <v>0.06173760810955239</v>
+        <v>0.07124684730459206</v>
       </c>
       <c r="D24">
-        <v>0.06327962725649</v>
+        <v>-0.04004162554017037</v>
       </c>
       <c r="E24">
-        <v>0.01195841846003451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0488997085889019</v>
+      </c>
+      <c r="F24">
+        <v>-0.006911642116771017</v>
+      </c>
+      <c r="G24">
+        <v>0.002623734203006985</v>
+      </c>
+      <c r="H24">
+        <v>0.01262502180559089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02084176118633619</v>
+        <v>-0.01620088980136523</v>
       </c>
       <c r="C25">
-        <v>0.05367326460001871</v>
+        <v>0.06606618209063771</v>
       </c>
       <c r="D25">
-        <v>0.05410131803752346</v>
+        <v>-0.04313829178835194</v>
       </c>
       <c r="E25">
-        <v>0.0154556820160124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03240933667942501</v>
+      </c>
+      <c r="F25">
+        <v>-0.005107382871136009</v>
+      </c>
+      <c r="G25">
+        <v>-0.01095001506977558</v>
+      </c>
+      <c r="H25">
+        <v>0.008119160925172219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.00805243909017094</v>
+        <v>-0.01694483845423787</v>
       </c>
       <c r="C26">
-        <v>0.01851619239358024</v>
+        <v>0.03236954319994532</v>
       </c>
       <c r="D26">
-        <v>0.06027695649950246</v>
+        <v>-0.05023937422877468</v>
       </c>
       <c r="E26">
-        <v>0.0430956791279121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06457517748309323</v>
+      </c>
+      <c r="F26">
+        <v>0.04638696993300954</v>
+      </c>
+      <c r="G26">
+        <v>0.02872696376432538</v>
+      </c>
+      <c r="H26">
+        <v>0.001246102946128405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2757526360521278</v>
+        <v>-0.3127736372184051</v>
       </c>
       <c r="C28">
-        <v>-0.1742046812828424</v>
+        <v>-0.09383193776891741</v>
       </c>
       <c r="D28">
-        <v>-0.0124058730852556</v>
+        <v>0.01486370724683406</v>
       </c>
       <c r="E28">
-        <v>0.03317000646986964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05391482240153412</v>
+      </c>
+      <c r="F28">
+        <v>0.04698321243527082</v>
+      </c>
+      <c r="G28">
+        <v>0.06207884741009135</v>
+      </c>
+      <c r="H28">
+        <v>0.01996873279871845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0028026764214111</v>
+        <v>-0.002477537245601265</v>
       </c>
       <c r="C29">
-        <v>0.0211942627750141</v>
+        <v>0.04090131177904257</v>
       </c>
       <c r="D29">
-        <v>0.07130340146294621</v>
+        <v>-0.08984155349363106</v>
       </c>
       <c r="E29">
-        <v>0.04950480507853123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1023612298162766</v>
+      </c>
+      <c r="F29">
+        <v>0.03650449818716161</v>
+      </c>
+      <c r="G29">
+        <v>0.0127777197708252</v>
+      </c>
+      <c r="H29">
+        <v>-0.03653589370219763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02898853105463301</v>
+        <v>-0.01860860550341863</v>
       </c>
       <c r="C30">
-        <v>0.07200901066323667</v>
+        <v>0.09981742386455336</v>
       </c>
       <c r="D30">
-        <v>0.1466078199605117</v>
+        <v>-0.1122412232132953</v>
       </c>
       <c r="E30">
-        <v>0.0684253543642282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.09154931686306236</v>
+      </c>
+      <c r="F30">
+        <v>0.01428306314358498</v>
+      </c>
+      <c r="G30">
+        <v>0.01986577507930022</v>
+      </c>
+      <c r="H30">
+        <v>0.04585276252630676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03471663771387345</v>
+        <v>-0.01174159960821623</v>
       </c>
       <c r="C31">
-        <v>0.08513554437112444</v>
+        <v>0.09527442428533393</v>
       </c>
       <c r="D31">
-        <v>0.05401924788401384</v>
+        <v>-0.03011179357385967</v>
       </c>
       <c r="E31">
-        <v>0.0272650176449916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02542399195518682</v>
+      </c>
+      <c r="F31">
+        <v>0.01591374746413685</v>
+      </c>
+      <c r="G31">
+        <v>0.01645935330201398</v>
+      </c>
+      <c r="H31">
+        <v>0.006082925912713188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.015455134458513</v>
+        <v>-0.01421602978889587</v>
       </c>
       <c r="C32">
-        <v>0.04129955316024839</v>
+        <v>0.05016619037755547</v>
       </c>
       <c r="D32">
-        <v>0.08460769002247343</v>
+        <v>-0.07583964532995163</v>
       </c>
       <c r="E32">
-        <v>0.07521632205012074</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01504213624294195</v>
+      </c>
+      <c r="F32">
+        <v>0.04953452064889714</v>
+      </c>
+      <c r="G32">
+        <v>0.03047788678812106</v>
+      </c>
+      <c r="H32">
+        <v>-0.02470837385710723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.007244874381035715</v>
+        <v>-0.00841231689627945</v>
       </c>
       <c r="C33">
-        <v>0.04110060607090366</v>
+        <v>0.06546838048946582</v>
       </c>
       <c r="D33">
-        <v>0.1041043838621908</v>
+        <v>-0.1052673960710963</v>
       </c>
       <c r="E33">
-        <v>0.06952456664686436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06416543081359506</v>
+      </c>
+      <c r="F33">
+        <v>0.03016916991847485</v>
+      </c>
+      <c r="G33">
+        <v>0.01173960059657634</v>
+      </c>
+      <c r="H33">
+        <v>0.004026769610652017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01708039389202667</v>
+        <v>-0.01025772169130276</v>
       </c>
       <c r="C34">
-        <v>0.06200514870855415</v>
+        <v>0.06393996579049778</v>
       </c>
       <c r="D34">
-        <v>0.05721836036656753</v>
+        <v>-0.02139128688218572</v>
       </c>
       <c r="E34">
-        <v>-0.03188215254570327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03620488882329134</v>
+      </c>
+      <c r="F34">
+        <v>-0.03953154576285225</v>
+      </c>
+      <c r="G34">
+        <v>0.003518176893516293</v>
+      </c>
+      <c r="H34">
+        <v>-0.001917666033251204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0001556898491056362</v>
+        <v>-0.003947401519696149</v>
       </c>
       <c r="C35">
-        <v>0.0004700083340053849</v>
+        <v>0.01556160021673411</v>
       </c>
       <c r="D35">
-        <v>3.603489052988948e-05</v>
+        <v>-0.03381888525645028</v>
       </c>
       <c r="E35">
-        <v>-0.0004615298689294002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02266074944779415</v>
+      </c>
+      <c r="F35">
+        <v>0.01810336585405652</v>
+      </c>
+      <c r="G35">
+        <v>-0.002471550348324547</v>
+      </c>
+      <c r="H35">
+        <v>-0.004830705768292991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.009603328726049352</v>
+        <v>-0.01185154822412104</v>
       </c>
       <c r="C36">
-        <v>0.008987256392092347</v>
+        <v>0.02520494927648408</v>
       </c>
       <c r="D36">
-        <v>0.06208066893796744</v>
+        <v>-0.06149050452738468</v>
       </c>
       <c r="E36">
-        <v>0.06332587909222663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05434873175418139</v>
+      </c>
+      <c r="F36">
+        <v>0.04796931255474059</v>
+      </c>
+      <c r="G36">
+        <v>0.01596850398276836</v>
+      </c>
+      <c r="H36">
+        <v>0.001637157923236399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005405716539622435</v>
+        <v>-0.0111510767294317</v>
       </c>
       <c r="C38">
-        <v>0.009028326114590474</v>
+        <v>0.02914788072697751</v>
       </c>
       <c r="D38">
-        <v>0.08906282369699564</v>
+        <v>-0.08681479287625939</v>
       </c>
       <c r="E38">
-        <v>0.03855022631786183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.04066140895872179</v>
+      </c>
+      <c r="F38">
+        <v>0.009553799765391339</v>
+      </c>
+      <c r="G38">
+        <v>0.03736628654917717</v>
+      </c>
+      <c r="H38">
+        <v>0.03872007582076416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01324326714740812</v>
+        <v>-0.006786214902573398</v>
       </c>
       <c r="C39">
-        <v>0.0633844065151284</v>
+        <v>0.08928495147962265</v>
       </c>
       <c r="D39">
-        <v>0.1042422551952915</v>
+        <v>-0.08075980144606919</v>
       </c>
       <c r="E39">
-        <v>0.02773174886353255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08511053596936742</v>
+      </c>
+      <c r="F39">
+        <v>-0.007993896476526189</v>
+      </c>
+      <c r="G39">
+        <v>-0.0005303180340422456</v>
+      </c>
+      <c r="H39">
+        <v>0.01210302532312296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01920794341053988</v>
+        <v>-0.01480546809250059</v>
       </c>
       <c r="C40">
-        <v>0.02653390332813357</v>
+        <v>0.04421234797135303</v>
       </c>
       <c r="D40">
-        <v>0.1199011350108827</v>
+        <v>-0.08308541222161643</v>
       </c>
       <c r="E40">
-        <v>0.02475954510420016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07229835726162269</v>
+      </c>
+      <c r="F40">
+        <v>-0.02909454459801683</v>
+      </c>
+      <c r="G40">
+        <v>0.08441931741739164</v>
+      </c>
+      <c r="H40">
+        <v>-0.02161075849529266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01042593412322139</v>
+        <v>-0.01859863817092481</v>
       </c>
       <c r="C41">
-        <v>0.00622412358112457</v>
+        <v>0.02398614329960101</v>
       </c>
       <c r="D41">
-        <v>0.03087913087012712</v>
+        <v>-0.04025127639239287</v>
       </c>
       <c r="E41">
-        <v>0.02958557553870186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01544050583552599</v>
+      </c>
+      <c r="F41">
+        <v>0.02109658964327255</v>
+      </c>
+      <c r="G41">
+        <v>0.01086676445386385</v>
+      </c>
+      <c r="H41">
+        <v>0.005492659135363292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0009361542148068194</v>
+        <v>-0.01004403331512191</v>
       </c>
       <c r="C43">
-        <v>0.001501113388929975</v>
+        <v>0.01685874891873598</v>
       </c>
       <c r="D43">
-        <v>0.04425857696563232</v>
+        <v>-0.04905694337110478</v>
       </c>
       <c r="E43">
-        <v>0.03395332155994479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02863355658691705</v>
+      </c>
+      <c r="F43">
+        <v>0.02345373044339709</v>
+      </c>
+      <c r="G43">
+        <v>0.005820390844204725</v>
+      </c>
+      <c r="H43">
+        <v>0.01959935203541086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0198532414868684</v>
+        <v>-0.01104903486502772</v>
       </c>
       <c r="C44">
-        <v>0.02827103114024378</v>
+        <v>0.051941595190181</v>
       </c>
       <c r="D44">
-        <v>0.09434545871255652</v>
+        <v>-0.09361646630819237</v>
       </c>
       <c r="E44">
-        <v>0.08351139185948978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07572533261483597</v>
+      </c>
+      <c r="F44">
+        <v>0.03668581794951215</v>
+      </c>
+      <c r="G44">
+        <v>0.04332908288779835</v>
+      </c>
+      <c r="H44">
+        <v>0.02619163550751185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.002821216332949485</v>
+        <v>0.00116614276682735</v>
       </c>
       <c r="C46">
-        <v>0.03107050366871668</v>
+        <v>0.04334357028236514</v>
       </c>
       <c r="D46">
-        <v>0.07988442551981778</v>
+        <v>-0.06544954405117269</v>
       </c>
       <c r="E46">
-        <v>0.04645659443538008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07781993699657568</v>
+      </c>
+      <c r="F46">
+        <v>0.0319956898135558</v>
+      </c>
+      <c r="G46">
+        <v>0.02355070464519576</v>
+      </c>
+      <c r="H46">
+        <v>-0.0008821517749455264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06848466122586513</v>
+        <v>-0.03170214895834478</v>
       </c>
       <c r="C47">
-        <v>0.1142321684123337</v>
+        <v>0.1249892343793522</v>
       </c>
       <c r="D47">
-        <v>0.05785711548567018</v>
+        <v>-0.02232833898735762</v>
       </c>
       <c r="E47">
-        <v>0.02792306460320559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0008901428285419861</v>
+      </c>
+      <c r="F47">
+        <v>-0.004611493678435835</v>
+      </c>
+      <c r="G47">
+        <v>-0.02039275372325207</v>
+      </c>
+      <c r="H47">
+        <v>0.01180440081788399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.009104046789921398</v>
+        <v>-0.01408876531247999</v>
       </c>
       <c r="C48">
-        <v>0.0184173573733615</v>
+        <v>0.03518746894537911</v>
       </c>
       <c r="D48">
-        <v>0.06486609648713058</v>
+        <v>-0.06621901877542097</v>
       </c>
       <c r="E48">
-        <v>0.06622464044105704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04973234896545219</v>
+      </c>
+      <c r="F48">
+        <v>0.0549040150759291</v>
+      </c>
+      <c r="G48">
+        <v>0.02330951926217344</v>
+      </c>
+      <c r="H48">
+        <v>0.01562246638012279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002157339970923169</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001114525343126135</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001830989288297609</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-5.57490267998611e-05</v>
+      </c>
+      <c r="F49">
+        <v>2.304881688610839e-05</v>
+      </c>
+      <c r="G49">
+        <v>-0.002083500708567788</v>
+      </c>
+      <c r="H49">
+        <v>-0.002574865054271396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03116930402139849</v>
+        <v>-0.01475557595927398</v>
       </c>
       <c r="C50">
-        <v>0.05849505666229667</v>
+        <v>0.07598984319960758</v>
       </c>
       <c r="D50">
-        <v>0.0585785713037037</v>
+        <v>-0.04287894158256291</v>
       </c>
       <c r="E50">
-        <v>0.02018573237458816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02940308996885633</v>
+      </c>
+      <c r="F50">
+        <v>0.008912790006467535</v>
+      </c>
+      <c r="G50">
+        <v>0.01640518130786324</v>
+      </c>
+      <c r="H50">
+        <v>0.02002705127411579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.005816515849537027</v>
+        <v>0.003796853303875369</v>
       </c>
       <c r="C51">
-        <v>0.005846815745511188</v>
+        <v>0.01938781020106911</v>
       </c>
       <c r="D51">
-        <v>0.06148141525037863</v>
+        <v>-0.04361062722861107</v>
       </c>
       <c r="E51">
-        <v>0.03856805832369024</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05600471955432538</v>
+      </c>
+      <c r="F51">
+        <v>0.0366195667779156</v>
+      </c>
+      <c r="G51">
+        <v>0.04915568345282371</v>
+      </c>
+      <c r="H51">
+        <v>-0.001154856568918898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1033161125982621</v>
+        <v>-0.06007693879873337</v>
       </c>
       <c r="C53">
-        <v>0.1350874954785897</v>
+        <v>0.1623150840315673</v>
       </c>
       <c r="D53">
-        <v>-0.005051573193373235</v>
+        <v>0.02165570263695259</v>
       </c>
       <c r="E53">
-        <v>0.03494593014916615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02884687336048086</v>
+      </c>
+      <c r="F53">
+        <v>0.04015357288675356</v>
+      </c>
+      <c r="G53">
+        <v>0.008586520911019807</v>
+      </c>
+      <c r="H53">
+        <v>0.007622334763066778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.009037059888960575</v>
+        <v>-0.01242790090728978</v>
       </c>
       <c r="C54">
-        <v>0.0239317905111193</v>
+        <v>0.04169794466395623</v>
       </c>
       <c r="D54">
-        <v>0.09255442470545157</v>
+        <v>-0.07375425674660072</v>
       </c>
       <c r="E54">
-        <v>0.03454078118003977</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0462225949339761</v>
+      </c>
+      <c r="F54">
+        <v>0.006977820216931234</v>
+      </c>
+      <c r="G54">
+        <v>0.02610417997340873</v>
+      </c>
+      <c r="H54">
+        <v>0.02661690999798997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08518331635708333</v>
+        <v>-0.04222333555295325</v>
       </c>
       <c r="C55">
-        <v>0.1126273636436701</v>
+        <v>0.1277044876383821</v>
       </c>
       <c r="D55">
-        <v>-0.001923716070026319</v>
+        <v>0.04517397058252462</v>
       </c>
       <c r="E55">
-        <v>-0.007381981724094323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008084071838979114</v>
+      </c>
+      <c r="F55">
+        <v>0.002102978077052156</v>
+      </c>
+      <c r="G55">
+        <v>0.01497768126149891</v>
+      </c>
+      <c r="H55">
+        <v>-0.005155002272392402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.126650881763855</v>
+        <v>-0.06127092155110792</v>
       </c>
       <c r="C56">
-        <v>0.1579740403461762</v>
+        <v>0.1912903489086374</v>
       </c>
       <c r="D56">
-        <v>0.0214127901688748</v>
+        <v>0.0403592745182567</v>
       </c>
       <c r="E56">
-        <v>-0.0102019201381492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03317647067928407</v>
+      </c>
+      <c r="F56">
+        <v>0.003104330201101161</v>
+      </c>
+      <c r="G56">
+        <v>0.06790813771172277</v>
+      </c>
+      <c r="H56">
+        <v>0.005478050445572495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004917155153572522</v>
+        <v>-0.009690197151801758</v>
       </c>
       <c r="C58">
-        <v>0.0184509779482808</v>
+        <v>0.06894365603278939</v>
       </c>
       <c r="D58">
-        <v>0.2210782722483481</v>
+        <v>-0.26219203864584</v>
       </c>
       <c r="E58">
-        <v>0.189422909866442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08925140478185739</v>
+      </c>
+      <c r="F58">
+        <v>0.1439178417915063</v>
+      </c>
+      <c r="G58">
+        <v>0.167909144311822</v>
+      </c>
+      <c r="H58">
+        <v>0.08042315599455248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.200177307018555</v>
+        <v>-0.2582156073424796</v>
       </c>
       <c r="C59">
-        <v>-0.1253608087763783</v>
+        <v>-0.0580298047933632</v>
       </c>
       <c r="D59">
-        <v>0.04987384349610914</v>
+        <v>-0.04334752072864188</v>
       </c>
       <c r="E59">
-        <v>0.04068536583301156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01282376895766571</v>
+      </c>
+      <c r="F59">
+        <v>0.0193484976233112</v>
+      </c>
+      <c r="G59">
+        <v>0.02860122364964993</v>
+      </c>
+      <c r="H59">
+        <v>-0.03488364845559416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1775764404764778</v>
+        <v>-0.1536536677594767</v>
       </c>
       <c r="C60">
-        <v>0.1058215764490083</v>
+        <v>0.1633308161547891</v>
       </c>
       <c r="D60">
-        <v>0.1216103393769249</v>
+        <v>-0.03732220628141702</v>
       </c>
       <c r="E60">
-        <v>-0.05757019351635381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1091385531827525</v>
+      </c>
+      <c r="F60">
+        <v>-0.1902991105610487</v>
+      </c>
+      <c r="G60">
+        <v>-0.2544464975393315</v>
+      </c>
+      <c r="H60">
+        <v>-0.1368278975696348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02430033308025421</v>
+        <v>-0.01436870109831689</v>
       </c>
       <c r="C61">
-        <v>0.05933207271409032</v>
+        <v>0.08284789314069305</v>
       </c>
       <c r="D61">
-        <v>0.07917755369659683</v>
+        <v>-0.05879822653340364</v>
       </c>
       <c r="E61">
-        <v>0.01078591860623763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05991515030291143</v>
+      </c>
+      <c r="F61">
+        <v>-0.01597357476085435</v>
+      </c>
+      <c r="G61">
+        <v>-0.005681114653317491</v>
+      </c>
+      <c r="H61">
+        <v>0.002298462310634678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01099971420122465</v>
+        <v>-0.0158072185528999</v>
       </c>
       <c r="C63">
-        <v>0.02666797347704665</v>
+        <v>0.04589993203253878</v>
       </c>
       <c r="D63">
-        <v>0.07612847640937306</v>
+        <v>-0.04874364718515414</v>
       </c>
       <c r="E63">
-        <v>0.03886749533545907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.08102611303177344</v>
+      </c>
+      <c r="F63">
+        <v>0.02098118513939384</v>
+      </c>
+      <c r="G63">
+        <v>0.007983478124090693</v>
+      </c>
+      <c r="H63">
+        <v>0.009278471539660691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04597539424754855</v>
+        <v>-0.01583327205843099</v>
       </c>
       <c r="C64">
-        <v>0.09353283712420248</v>
+        <v>0.1056473103787302</v>
       </c>
       <c r="D64">
-        <v>0.01770011715930733</v>
+        <v>-0.009102218848918715</v>
       </c>
       <c r="E64">
-        <v>0.02464596576341918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0365139835122136</v>
+      </c>
+      <c r="F64">
+        <v>0.01768185462888089</v>
+      </c>
+      <c r="G64">
+        <v>-0.02715608995502582</v>
+      </c>
+      <c r="H64">
+        <v>0.03768507312499744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02754035198354975</v>
+        <v>-0.02678429617144316</v>
       </c>
       <c r="C65">
-        <v>0.01937643550007314</v>
+        <v>0.04579044527388745</v>
       </c>
       <c r="D65">
-        <v>0.09492219692720168</v>
+        <v>-0.09348181840814801</v>
       </c>
       <c r="E65">
-        <v>0.0400431427837338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.06909102438402399</v>
+      </c>
+      <c r="F65">
+        <v>-0.009835906351818215</v>
+      </c>
+      <c r="G65">
+        <v>-0.04810858837315053</v>
+      </c>
+      <c r="H65">
+        <v>0.0234017120819246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02075741580786714</v>
+        <v>-0.008271967352464105</v>
       </c>
       <c r="C66">
-        <v>0.07492520540975818</v>
+        <v>0.1099649214305795</v>
       </c>
       <c r="D66">
-        <v>0.1248052854609007</v>
+        <v>-0.1051028352287615</v>
       </c>
       <c r="E66">
-        <v>0.03107962695506377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0813567097620059</v>
+      </c>
+      <c r="F66">
+        <v>-0.007033240692898983</v>
+      </c>
+      <c r="G66">
+        <v>0.02158842828811915</v>
+      </c>
+      <c r="H66">
+        <v>0.01680817707802998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01963156737765613</v>
+        <v>-0.02050028404716105</v>
       </c>
       <c r="C67">
-        <v>0.02021529167950314</v>
+        <v>0.03658490526389051</v>
       </c>
       <c r="D67">
-        <v>0.05449144503755664</v>
+        <v>-0.04747855518922798</v>
       </c>
       <c r="E67">
-        <v>0.001806938980202266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03396136975134127</v>
+      </c>
+      <c r="F67">
+        <v>-0.01933141275522249</v>
+      </c>
+      <c r="G67">
+        <v>0.0123912295952919</v>
+      </c>
+      <c r="H67">
+        <v>0.02714765788764449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2137753666259213</v>
+        <v>-0.2791453765663723</v>
       </c>
       <c r="C68">
-        <v>-0.1381720270954361</v>
+        <v>-0.0708562324982424</v>
       </c>
       <c r="D68">
-        <v>0.02323597702895379</v>
+        <v>-0.03101072185669968</v>
       </c>
       <c r="E68">
-        <v>0.0292762646886896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004703213368731311</v>
+      </c>
+      <c r="F68">
+        <v>0.02667251030422983</v>
+      </c>
+      <c r="G68">
+        <v>0.05400694371489621</v>
+      </c>
+      <c r="H68">
+        <v>-0.003221453632563842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05371887846444472</v>
+        <v>-0.01727466241744153</v>
       </c>
       <c r="C69">
-        <v>0.1164038100635568</v>
+        <v>0.1132429005567522</v>
       </c>
       <c r="D69">
-        <v>0.07612439512812949</v>
+        <v>-0.01916067415164903</v>
       </c>
       <c r="E69">
-        <v>0.03117027120121836</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0109326025405683</v>
+      </c>
+      <c r="F69">
+        <v>-0.0134214653884967</v>
+      </c>
+      <c r="G69">
+        <v>-0.01031944594126009</v>
+      </c>
+      <c r="H69">
+        <v>-0.006589101569010291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2318106037567476</v>
+        <v>-0.2719914633885499</v>
       </c>
       <c r="C71">
-        <v>-0.1600588021733638</v>
+        <v>-0.08604685103665261</v>
       </c>
       <c r="D71">
-        <v>0.0151320034670388</v>
+        <v>-0.007940963542066231</v>
       </c>
       <c r="E71">
-        <v>0.006405373482240517</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006832312522911281</v>
+      </c>
+      <c r="F71">
+        <v>0.01266037948393415</v>
+      </c>
+      <c r="G71">
+        <v>0.04478762491572778</v>
+      </c>
+      <c r="H71">
+        <v>0.01563614706829913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09963389711351205</v>
+        <v>-0.06565833753186157</v>
       </c>
       <c r="C72">
-        <v>0.07748684009743563</v>
+        <v>0.1235528456125239</v>
       </c>
       <c r="D72">
-        <v>0.1046837487832874</v>
+        <v>-0.04551451684009882</v>
       </c>
       <c r="E72">
-        <v>0.02600817735072915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08075600198481094</v>
+      </c>
+      <c r="F72">
+        <v>-0.01706386319358824</v>
+      </c>
+      <c r="G72">
+        <v>-0.03318305424961294</v>
+      </c>
+      <c r="H72">
+        <v>0.003023100226184639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1728364164561333</v>
+        <v>-0.1593911482136673</v>
       </c>
       <c r="C73">
-        <v>0.08278125446011787</v>
+        <v>0.1638985537100847</v>
       </c>
       <c r="D73">
-        <v>0.1932150400578414</v>
+        <v>-0.05826415919266079</v>
       </c>
       <c r="E73">
-        <v>-0.09469549975307197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.277168158258897</v>
+      </c>
+      <c r="F73">
+        <v>-0.2900758810085535</v>
+      </c>
+      <c r="G73">
+        <v>-0.4099424648544189</v>
+      </c>
+      <c r="H73">
+        <v>-0.1410064380881313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.09842765707285191</v>
+        <v>-0.05272716162111437</v>
       </c>
       <c r="C74">
-        <v>0.1196622605834201</v>
+        <v>0.1408512749506722</v>
       </c>
       <c r="D74">
-        <v>-0.04703391326405632</v>
+        <v>0.04828758402389925</v>
       </c>
       <c r="E74">
-        <v>0.01612712919924801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03022538707590066</v>
+      </c>
+      <c r="F74">
+        <v>0.03315647016409799</v>
+      </c>
+      <c r="G74">
+        <v>-0.006878356238207586</v>
+      </c>
+      <c r="H74">
+        <v>-0.003729098802278052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2087044376296701</v>
+        <v>-0.09877468191597888</v>
       </c>
       <c r="C75">
-        <v>0.2166791357259037</v>
+        <v>0.2600515645901031</v>
       </c>
       <c r="D75">
-        <v>-0.05569119042483739</v>
+        <v>0.1199127243493859</v>
       </c>
       <c r="E75">
-        <v>-0.09706790455620175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1164977221475658</v>
+      </c>
+      <c r="F75">
+        <v>-0.05430402403586682</v>
+      </c>
+      <c r="G75">
+        <v>0.1043219284001508</v>
+      </c>
+      <c r="H75">
+        <v>0.07957392014758226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1250468696190416</v>
+        <v>-0.05981480875277851</v>
       </c>
       <c r="C76">
-        <v>0.1450225016903584</v>
+        <v>0.1758950922007061</v>
       </c>
       <c r="D76">
-        <v>0.001662640904554483</v>
+        <v>0.05123757432881707</v>
       </c>
       <c r="E76">
-        <v>-0.02048731517760499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03804618972858658</v>
+      </c>
+      <c r="F76">
+        <v>-0.006721344293567185</v>
+      </c>
+      <c r="G76">
+        <v>0.04216199094478388</v>
+      </c>
+      <c r="H76">
+        <v>0.01544425701790959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01329305501517657</v>
+        <v>-0.002539907421965312</v>
       </c>
       <c r="C77">
-        <v>0.07927311454706704</v>
+        <v>0.1219243239931379</v>
       </c>
       <c r="D77">
-        <v>0.2151055780656361</v>
+        <v>-0.5215787347404749</v>
       </c>
       <c r="E77">
-        <v>0.1306758051215064</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7604122242105921</v>
+      </c>
+      <c r="F77">
+        <v>-0.1536450424002622</v>
+      </c>
+      <c r="G77">
+        <v>-0.2051625818806178</v>
+      </c>
+      <c r="H77">
+        <v>-0.008035833747969514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03145998274315594</v>
+        <v>-0.02206046116731338</v>
       </c>
       <c r="C78">
-        <v>0.07497680257706152</v>
+        <v>0.09636824243100869</v>
       </c>
       <c r="D78">
-        <v>0.1481528468928507</v>
+        <v>-0.08191775718722814</v>
       </c>
       <c r="E78">
-        <v>0.09432763322375064</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08810078754537404</v>
+      </c>
+      <c r="F78">
+        <v>0.04139480558629993</v>
+      </c>
+      <c r="G78">
+        <v>0.09000611032552006</v>
+      </c>
+      <c r="H78">
+        <v>-0.03483494368970836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1057169208657482</v>
+        <v>-0.05079755948422618</v>
       </c>
       <c r="C79">
-        <v>0.2096194215032534</v>
+        <v>0.2138741440472774</v>
       </c>
       <c r="D79">
-        <v>-0.5121257492614321</v>
+        <v>0.1415674858275898</v>
       </c>
       <c r="E79">
-        <v>0.7483284215970427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.09465661865468106</v>
+      </c>
+      <c r="F79">
+        <v>0.7942946031124956</v>
+      </c>
+      <c r="G79">
+        <v>-0.4190838463481286</v>
+      </c>
+      <c r="H79">
+        <v>-0.02056613763373291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.002672487033360352</v>
+        <v>-0.007473703331800547</v>
       </c>
       <c r="C80">
-        <v>0.04648896634613042</v>
+        <v>0.04582412359516434</v>
       </c>
       <c r="D80">
-        <v>0.04238260655011247</v>
+        <v>-0.02571780652033107</v>
       </c>
       <c r="E80">
-        <v>0.00632435495622466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06332725556520161</v>
+      </c>
+      <c r="F80">
+        <v>-0.0003259870309977921</v>
+      </c>
+      <c r="G80">
+        <v>0.02340871142965876</v>
+      </c>
+      <c r="H80">
+        <v>-0.08649319094316169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1017042056162697</v>
+        <v>-0.03621043479848231</v>
       </c>
       <c r="C81">
-        <v>0.1402179631441147</v>
+        <v>0.1581796565126402</v>
       </c>
       <c r="D81">
-        <v>-0.07515386709139782</v>
+        <v>0.07211203451718094</v>
       </c>
       <c r="E81">
-        <v>-0.008576846613944386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0598400440095266</v>
+      </c>
+      <c r="F81">
+        <v>0.0496082192536695</v>
+      </c>
+      <c r="G81">
+        <v>0.0690754361664665</v>
+      </c>
+      <c r="H81">
+        <v>-0.005330065565861443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2105232236544294</v>
+        <v>-0.08187176068203676</v>
       </c>
       <c r="C82">
-        <v>0.3116926023656632</v>
+        <v>0.2972799049562901</v>
       </c>
       <c r="D82">
-        <v>-0.09823451373470701</v>
+        <v>0.2172045205034452</v>
       </c>
       <c r="E82">
-        <v>-0.2367683814155047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.112357635995259</v>
+      </c>
+      <c r="F82">
+        <v>-0.1255473191020292</v>
+      </c>
+      <c r="G82">
+        <v>0.1454949939603651</v>
+      </c>
+      <c r="H82">
+        <v>0.001533623915940777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01208279582165071</v>
+        <v>0.007253802149145275</v>
       </c>
       <c r="C83">
-        <v>0.04900789498939753</v>
+        <v>0.01763662305409873</v>
       </c>
       <c r="D83">
-        <v>0.006363890720083704</v>
+        <v>-0.02396847319972121</v>
       </c>
       <c r="E83">
-        <v>0.04142010955587629</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09296305634949688</v>
+      </c>
+      <c r="F83">
+        <v>0.09302801449217506</v>
+      </c>
+      <c r="G83">
+        <v>0.252984534683618</v>
+      </c>
+      <c r="H83">
+        <v>-0.8997642182452361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0002382467815219804</v>
+        <v>0.003805232365978302</v>
       </c>
       <c r="C84">
-        <v>0.002278642253452984</v>
+        <v>0.01752560898459269</v>
       </c>
       <c r="D84">
-        <v>0.009245086480201652</v>
+        <v>-0.04268025941357365</v>
       </c>
       <c r="E84">
-        <v>0.0006449064186685188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01642081119365971</v>
+      </c>
+      <c r="F84">
+        <v>0.02749008136919403</v>
+      </c>
+      <c r="G84">
+        <v>0.05325943226561285</v>
+      </c>
+      <c r="H84">
+        <v>0.05905466861231581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1288762580083637</v>
+        <v>-0.05606866762028213</v>
       </c>
       <c r="C85">
-        <v>0.1526653771124131</v>
+        <v>0.1762058791138939</v>
       </c>
       <c r="D85">
-        <v>-0.08324290444079166</v>
+        <v>0.1125081504510604</v>
       </c>
       <c r="E85">
-        <v>0.004561410934291553</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0220334148762484</v>
+      </c>
+      <c r="F85">
+        <v>0.05773134061129927</v>
+      </c>
+      <c r="G85">
+        <v>0.02002163182398416</v>
+      </c>
+      <c r="H85">
+        <v>0.01804505085545409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02369131291204642</v>
+        <v>-0.01691884973368502</v>
       </c>
       <c r="C86">
-        <v>0.01034800151736537</v>
+        <v>0.04125928650466327</v>
       </c>
       <c r="D86">
-        <v>0.1130531846898856</v>
+        <v>-0.1108663720836443</v>
       </c>
       <c r="E86">
-        <v>0.05388997537493601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.008209410237926649</v>
+      </c>
+      <c r="F86">
+        <v>0.02231731200936893</v>
+      </c>
+      <c r="G86">
+        <v>-0.007307327621176691</v>
+      </c>
+      <c r="H86">
+        <v>0.01348138029337716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02209967007366881</v>
+        <v>-0.01109203154755617</v>
       </c>
       <c r="C87">
-        <v>0.03558972387664273</v>
+        <v>0.06975970234679758</v>
       </c>
       <c r="D87">
-        <v>0.1352037329249889</v>
+        <v>-0.1263918812542217</v>
       </c>
       <c r="E87">
-        <v>0.0941217844566746</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05934294348813776</v>
+      </c>
+      <c r="F87">
+        <v>0.04349152584199682</v>
+      </c>
+      <c r="G87">
+        <v>0.07904108510918993</v>
+      </c>
+      <c r="H87">
+        <v>0.002134342583034916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04527196342012261</v>
+        <v>-0.03345926889326439</v>
       </c>
       <c r="C88">
-        <v>0.05002906734748905</v>
+        <v>0.07115506367183401</v>
       </c>
       <c r="D88">
-        <v>0.002461489616935838</v>
+        <v>-0.0106624231544452</v>
       </c>
       <c r="E88">
-        <v>0.02397793968194544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03303555318430502</v>
+      </c>
+      <c r="F88">
+        <v>0.02108184139750935</v>
+      </c>
+      <c r="G88">
+        <v>-0.009339056671026358</v>
+      </c>
+      <c r="H88">
+        <v>0.01482744702176983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3433428971190945</v>
+        <v>-0.3957448696961222</v>
       </c>
       <c r="C89">
-        <v>-0.2955621609674108</v>
+        <v>-0.1660345920200253</v>
       </c>
       <c r="D89">
-        <v>0.0213512299895626</v>
+        <v>-0.04975479368892252</v>
       </c>
       <c r="E89">
-        <v>0.1077658772887886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03019989131998124</v>
+      </c>
+      <c r="F89">
+        <v>0.07263998351489717</v>
+      </c>
+      <c r="G89">
+        <v>0.08163894778321008</v>
+      </c>
+      <c r="H89">
+        <v>-0.05432503108046088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2773134064345888</v>
+        <v>-0.3227998708669381</v>
       </c>
       <c r="C90">
-        <v>-0.2174950088392766</v>
+        <v>-0.1067235257168779</v>
       </c>
       <c r="D90">
-        <v>0.06233987092468109</v>
+        <v>-0.03466557546486222</v>
       </c>
       <c r="E90">
-        <v>0.00798169783286222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0003914306928631005</v>
+      </c>
+      <c r="F90">
+        <v>-0.007913996565105214</v>
+      </c>
+      <c r="G90">
+        <v>0.05758670077049531</v>
+      </c>
+      <c r="H90">
+        <v>-0.005955268361649993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1346681291585067</v>
+        <v>-0.06677298340085858</v>
       </c>
       <c r="C91">
-        <v>0.1995128933833225</v>
+        <v>0.201978175630452</v>
       </c>
       <c r="D91">
-        <v>-0.09206336345850136</v>
+        <v>0.09927960520713595</v>
       </c>
       <c r="E91">
-        <v>0.03380249021932916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08418612617020342</v>
+      </c>
+      <c r="F91">
+        <v>0.06071144642182063</v>
+      </c>
+      <c r="G91">
+        <v>0.01432315953663109</v>
+      </c>
+      <c r="H91">
+        <v>-0.02130790398611713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2615690085806303</v>
+        <v>-0.3358666039484271</v>
       </c>
       <c r="C92">
-        <v>-0.2455823658465773</v>
+        <v>-0.1487902479935481</v>
       </c>
       <c r="D92">
-        <v>-0.04810083525099203</v>
+        <v>-0.02296264386151536</v>
       </c>
       <c r="E92">
-        <v>0.01724519194075248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06612205713484338</v>
+      </c>
+      <c r="F92">
+        <v>0.04037925237406419</v>
+      </c>
+      <c r="G92">
+        <v>0.001096731498507599</v>
+      </c>
+      <c r="H92">
+        <v>0.1360776600526793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2944807962994378</v>
+        <v>-0.3288573429864461</v>
       </c>
       <c r="C93">
-        <v>-0.2230206669049427</v>
+        <v>-0.1200455957044037</v>
       </c>
       <c r="D93">
-        <v>-0.02206837962548919</v>
+        <v>0.02566558730098186</v>
       </c>
       <c r="E93">
-        <v>-0.0116216572276397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01054756618235462</v>
+      </c>
+      <c r="F93">
+        <v>0.005339274620048546</v>
+      </c>
+      <c r="G93">
+        <v>-0.02400708204075327</v>
+      </c>
+      <c r="H93">
+        <v>0.01962973773424244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2539713193586131</v>
+        <v>-0.1231641830798999</v>
       </c>
       <c r="C94">
-        <v>0.2822268392294907</v>
+        <v>0.31907295153672</v>
       </c>
       <c r="D94">
-        <v>-0.2054218963380311</v>
+        <v>0.3468049687773161</v>
       </c>
       <c r="E94">
-        <v>-0.3106972675541895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1500023032143229</v>
+      </c>
+      <c r="F94">
+        <v>-0.148220315219004</v>
+      </c>
+      <c r="G94">
+        <v>0.2935864990112785</v>
+      </c>
+      <c r="H94">
+        <v>0.1017824260125835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.005517462639935057</v>
+        <v>-0.01589812334398344</v>
       </c>
       <c r="C95">
-        <v>0.05336516226511513</v>
+        <v>0.07666061845091908</v>
       </c>
       <c r="D95">
-        <v>0.1163165364653316</v>
+        <v>-0.1402548945119644</v>
       </c>
       <c r="E95">
-        <v>0.04556283374918715</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08270849905673015</v>
+      </c>
+      <c r="F95">
+        <v>-0.04109996171338704</v>
+      </c>
+      <c r="G95">
+        <v>-0.07613722077702485</v>
+      </c>
+      <c r="H95">
+        <v>0.0582098627960968</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002670129245600009</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008948205297525637</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003087854515504687</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003406560451244346</v>
+      </c>
+      <c r="F97">
+        <v>0.0006914508697613458</v>
+      </c>
+      <c r="G97">
+        <v>0.001203861645143381</v>
+      </c>
+      <c r="H97">
+        <v>0.005658721681488273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1479238081301981</v>
+        <v>-0.1358774328339052</v>
       </c>
       <c r="C98">
-        <v>0.1009124686455639</v>
+        <v>0.1623550021778466</v>
       </c>
       <c r="D98">
-        <v>0.1266155773127609</v>
+        <v>-0.01587236209486259</v>
       </c>
       <c r="E98">
-        <v>-0.1026365982540484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.176116953289092</v>
+      </c>
+      <c r="F98">
+        <v>-0.2428459952297948</v>
+      </c>
+      <c r="G98">
+        <v>-0.3042845107008408</v>
+      </c>
+      <c r="H98">
+        <v>-0.1195466372312991</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002284280281030632</v>
+        <v>-0.002765514384319106</v>
       </c>
       <c r="C101">
-        <v>0.02061032423686751</v>
+        <v>0.04010738628955718</v>
       </c>
       <c r="D101">
-        <v>0.07096858109715766</v>
+        <v>-0.08902497989355392</v>
       </c>
       <c r="E101">
-        <v>0.04981120763968679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1017075113476257</v>
+      </c>
+      <c r="F101">
+        <v>0.03633803168032374</v>
+      </c>
+      <c r="G101">
+        <v>0.01369015046116305</v>
+      </c>
+      <c r="H101">
+        <v>-0.03606824492774543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08835861031275609</v>
+        <v>-0.02198349661875571</v>
       </c>
       <c r="C102">
-        <v>0.1659793747245482</v>
+        <v>0.1376250292894421</v>
       </c>
       <c r="D102">
-        <v>-0.01070625611252394</v>
+        <v>0.09311238694539525</v>
       </c>
       <c r="E102">
-        <v>-0.1056346277722525</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05895691698223961</v>
+      </c>
+      <c r="F102">
+        <v>-0.08643796339008356</v>
+      </c>
+      <c r="G102">
+        <v>0.01142074586543395</v>
+      </c>
+      <c r="H102">
+        <v>-0.02683036597244469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
